--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,134 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010EA7-D806-954C-B32D-F9088E7A7EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="580" windowWidth="17640" windowHeight="11380" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView windowWidth="22080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUnitType</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>EActionEventType</t>
+  </si>
+  <si>
+    <t>RangeDamage</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>RemoveBuff</t>
+  </si>
+  <si>
+    <t>Stealth</t>
+  </si>
+  <si>
+    <t>ESkillAbstractType</t>
+  </si>
+  <si>
+    <t>NormalAttack</t>
+  </si>
+  <si>
+    <t>ActiveSkill</t>
+  </si>
+  <si>
+    <t>PassiveSkill</t>
+  </si>
+  <si>
+    <t>WeaponSkill</t>
+  </si>
+  <si>
+    <t>MountSkill</t>
+  </si>
+  <si>
+    <t>EColliderType</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,12 +322,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -152,22 +523,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -179,23 +792,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,26 +934,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -329,23 +969,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,66 +1110,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.16666666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="15.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -554,56 +1172,234 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1">
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9">
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="8" spans="7:9">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="2:9">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9">
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="2:9">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -107,13 +107,82 @@
     <t>RangeDamage</t>
   </si>
   <si>
+    <t>范围伤害</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
     <t>AddBuff</t>
   </si>
   <si>
+    <t>添加buff</t>
+  </si>
+  <si>
     <t>RemoveBuff</t>
   </si>
   <si>
+    <t>移除buff</t>
+  </si>
+  <si>
     <t>Stealth</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>ChangeNumeric</t>
+  </si>
+  <si>
+    <t>修改数值</t>
+  </si>
+  <si>
+    <t>PlayAnimation</t>
+  </si>
+  <si>
+    <t>播动画</t>
+  </si>
+  <si>
+    <t>ShakeCamera</t>
+  </si>
+  <si>
+    <t>震屏</t>
+  </si>
+  <si>
+    <t>PlayEffect</t>
+  </si>
+  <si>
+    <t>播特效</t>
+  </si>
+  <si>
+    <t>PlaySound</t>
+  </si>
+  <si>
+    <t>播音效</t>
+  </si>
+  <si>
+    <t>HideWeapon</t>
+  </si>
+  <si>
+    <t>隐藏武器</t>
+  </si>
+  <si>
+    <t>PlayMaterial</t>
+  </si>
+  <si>
+    <t>播放材质（金身/石化）</t>
+  </si>
+  <si>
+    <t>RecoverMaterial</t>
+  </si>
+  <si>
+    <t>恢复材质</t>
   </si>
   <si>
     <t>ESkillAbstractType</t>
@@ -153,14 +222,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,12 +553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,148 +695,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
@@ -1130,7 +1186,7 @@
     <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.16666666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="12.1666666666667" customWidth="1"/>
     <col min="10" max="10" width="15.1666666666667" customWidth="1"/>
   </cols>
@@ -1275,12 +1331,12 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -1289,13 +1345,19 @@
       <c r="G10" t="s">
         <v>22</v>
       </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="7:9">
       <c r="G11" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -1303,7 +1365,10 @@
     </row>
     <row r="12" spans="7:9">
       <c r="G12" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -1311,86 +1376,185 @@
     </row>
     <row r="13" spans="7:9">
       <c r="G13" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
+    <row r="14" spans="7:9">
       <c r="G14" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="7:9">
       <c r="G15" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
       </c>
       <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="7:9">
       <c r="G16" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
       </c>
       <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="7:9">
       <c r="G17" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="7:9">
       <c r="G18" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="2:9">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19"/>
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
       <c r="I19">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="7:9">
       <c r="G20" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
       </c>
       <c r="I20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="2:9">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
     </row>
